--- a/data/ams_weekly_data/White_Mulberry/business_report_week4.xlsx
+++ b/data/ams_weekly_data/White_Mulberry/business_report_week4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\Week 4\Amazon\WM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\ams_weekly_data\White_Mulberry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9903069A-88A8-438C-ACA7-4760F9FFE5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E679D3-BDD8-429E-917F-546851239F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3BA91A43-16CF-44CC-A26E-60918BFF4329}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="169">
   <si>
     <t>SKU</t>
   </si>
@@ -518,6 +518,15 @@
   </si>
   <si>
     <t>White Mulberry Single Screen POS Machine Stand w/Keyboard Tray, Card Reader, Printer, Barcode Scanner Holder| Fits 17"-32" Monitors (9kg), VESA 75x75/100x100| Height Adjustable Pole, Cable Management</t>
+  </si>
+  <si>
+    <t>FBA79616</t>
+  </si>
+  <si>
+    <t>HD1ML</t>
+  </si>
+  <si>
+    <t>B0DP3194QN</t>
   </si>
 </sst>
 </file>
@@ -1364,9 +1373,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E433D60-15FF-4DF4-BF36-ED94B126695C}">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4068,6 +4079,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="P39">
+        <v>35</v>
+      </c>
+      <c r="T39">
+        <v>82991.62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="P40">
+        <v>47</v>
+      </c>
+      <c r="T40">
+        <v>75200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>140</v>
+      </c>
+      <c r="P41">
+        <v>26</v>
+      </c>
+      <c r="T41">
+        <v>56142.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>148</v>
+      </c>
+      <c r="P42">
+        <v>20</v>
+      </c>
+      <c r="T42">
+        <v>50813.599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <v>6438.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
